--- a/ePICreator/Dovato.xlsx
+++ b/ePICreator/Dovato.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D6D7E1-4AC4-1344-8561-6464F1FA3E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AC4F72-0131-A742-82C8-90381367565C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -1635,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2331,8 +2331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2346,8 +2346,7 @@
     <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
@@ -2417,11 +2416,11 @@
       <c r="B2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>179</v>
-      </c>
-      <c r="D2" t="s">
-        <v>180</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>118</v>
@@ -2460,7 +2459,6 @@
     <row r="3" spans="1:19">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -2527,7 +2525,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{08E51872-A833-F148-8BE2-EAB6AAAA2710}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{08E51872-A833-F148-8BE2-EAB6AAAA2710}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/ePICreator/Dovato.xlsx
+++ b/ePICreator/Dovato.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AC4F72-0131-A742-82C8-90381367565C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8734EF31-BF95-D441-B9C3-1E1DF0D239B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -2331,7 +2331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -2537,7 +2537,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2602,6 +2602,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2610,7 +2611,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2696,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E689D-306D-3A44-A772-E9755EF7D37C}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/ePICreator/Dovato.xlsx
+++ b/ePICreator/Dovato.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8734EF31-BF95-D441-B9C3-1E1DF0D239B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4007F36-CFC8-704E-9C2A-966CC7C7902A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="180">
   <si>
     <t>id</t>
   </si>
@@ -361,9 +361,6 @@
   </si>
   <si>
     <t>70097M6I30</t>
-  </si>
-  <si>
-    <t>xx</t>
   </si>
   <si>
     <t>Dovato 50 mg/300 mg film-coated tablets</t>
@@ -432,12 +429,6 @@
     <t>100000072062</t>
   </si>
   <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>European Union</t>
-  </si>
-  <si>
     <t>1Q1V9V5WYQ</t>
   </si>
   <si>
@@ -532,9 +523,6 @@
   </si>
   <si>
     <t>2022-04-29T13:28:17Z</t>
-  </si>
-  <si>
-    <t>yy</t>
   </si>
   <si>
     <t>es</t>
@@ -991,6 +979,12 @@
   </si>
   <si>
     <t>Dovato 50 mg/300 mg comprimidos recubiertos con película</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1145,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1168,7 +1162,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1525,19 +1519,19 @@
     <row r="2" spans="1:13" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>30</v>
@@ -1546,10 +1540,10 @@
         <v>31</v>
       </c>
       <c r="I2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>103</v>
@@ -1559,10 +1553,10 @@
     </row>
     <row r="3" spans="1:13" ht="19">
       <c r="B3" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>28</v>
@@ -1580,28 +1574,28 @@
         <v>31</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F4" s="9">
         <v>220000000032</v>
@@ -1613,16 +1607,16 @@
         <v>31</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1635,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1701,11 +1695,9 @@
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
         <v>51</v>
       </c>
@@ -1713,76 +1705,73 @@
         <v>53</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="I2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="409.6">
       <c r="B3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="K3" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1827,10 +1816,10 @@
         <v>46</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1842,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C620B326-AC2F-7D41-952C-D15C634902DC}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1893,10 +1882,10 @@
     <row r="2" spans="1:11">
       <c r="A2" s="15"/>
       <c r="B2" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>34</v>
@@ -1905,19 +1894,19 @@
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>43</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2017,10 +2006,10 @@
     <row r="2" spans="1:14" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -2029,16 +2018,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H2" t="s">
         <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K2" t="s">
         <v>41</v>
@@ -2052,10 +2041,10 @@
     </row>
     <row r="3" spans="1:14" ht="20">
       <c r="B3" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -2064,16 +2053,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H3" t="s">
         <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K3" t="s">
         <v>41</v>
@@ -2157,10 +2146,10 @@
     <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -2187,10 +2176,10 @@
     <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -2217,10 +2206,10 @@
     <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -2237,10 +2226,10 @@
     <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -2257,7 +2246,7 @@
     <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>104</v>
@@ -2277,10 +2266,10 @@
     <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -2332,7 +2321,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2414,34 +2403,34 @@
     <row r="2" spans="1:19">
       <c r="A2" s="15"/>
       <c r="B2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="G2" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="K2" s="13" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>90</v>
@@ -2453,7 +2442,7 @@
         <v>61</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2579,16 +2568,16 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F2" s="2">
         <v>100000073665</v>
@@ -2660,7 +2649,7 @@
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>123456</v>
@@ -2697,7 +2686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E689D-306D-3A44-A772-E9755EF7D37C}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -2794,16 +2783,16 @@
     <row r="2" spans="1:23">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -2812,13 +2801,13 @@
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I2" s="9">
         <v>654321</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K2" s="2">
         <v>100000073504</v>
@@ -2827,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N2" s="17">
         <v>200000003529</v>

--- a/ePICreator/Dovato.xlsx
+++ b/ePICreator/Dovato.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4007F36-CFC8-704E-9C2A-966CC7C7902A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00D22C9-E129-E64B-8403-98059ABE5B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="181">
   <si>
     <t>id</t>
   </si>
@@ -985,6 +985,9 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C620B326-AC2F-7D41-952C-D15C634902DC}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -2320,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2370,7 +2373,7 @@
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="K1" t="s">
         <v>89</v>

--- a/ePICreator/Dovato.xlsx
+++ b/ePICreator/Dovato.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00D22C9-E129-E64B-8403-98059ABE5B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043D30CC-644D-5644-AEFB-F51B3BF8CF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="182">
   <si>
     <t>id</t>
   </si>
@@ -394,9 +394,6 @@
     &lt;li&gt;Contents of the pack and other information&lt;/li&gt;
   &lt;/ol&gt;
   &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>dovato</t>
   </si>
   <si>
     <t>EU/1/19/1370/001</t>
@@ -988,6 +985,12 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>dovato-es</t>
+  </si>
+  <si>
+    <t>dovat-en</t>
   </si>
 </sst>
 </file>
@@ -1522,19 +1525,19 @@
     <row r="2" spans="1:13" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>30</v>
@@ -1543,10 +1546,10 @@
         <v>31</v>
       </c>
       <c r="I2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>103</v>
@@ -1556,10 +1559,10 @@
     </row>
     <row r="3" spans="1:13" ht="19">
       <c r="B3" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>28</v>
@@ -1577,28 +1580,28 @@
         <v>31</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="9">
         <v>220000000032</v>
@@ -1610,16 +1613,16 @@
         <v>31</v>
       </c>
       <c r="I4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1632,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1708,73 +1711,73 @@
         <v>53</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>107</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I2" t="s">
         <v>108</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="409.6">
       <c r="B3" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1785,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1797,7 +1800,7 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1811,22 +1814,43 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1888,7 +1912,7 @@
         <v>105</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>34</v>
@@ -1897,19 +1921,19 @@
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>43</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2009,10 +2033,10 @@
     <row r="2" spans="1:14" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -2021,16 +2045,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H2" t="s">
         <v>40</v>
       </c>
       <c r="I2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>164</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>165</v>
       </c>
       <c r="K2" t="s">
         <v>41</v>
@@ -2044,10 +2068,10 @@
     </row>
     <row r="3" spans="1:14" ht="20">
       <c r="B3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -2056,16 +2080,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H3" t="s">
         <v>40</v>
       </c>
       <c r="I3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>161</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>162</v>
       </c>
       <c r="K3" t="s">
         <v>41</v>
@@ -2149,10 +2173,10 @@
     <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -2179,10 +2203,10 @@
     <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -2209,10 +2233,10 @@
     <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -2229,10 +2253,10 @@
     <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -2249,7 +2273,7 @@
     <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>104</v>
@@ -2269,10 +2293,10 @@
     <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -2323,7 +2347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -2373,7 +2397,7 @@
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K1" t="s">
         <v>89</v>
@@ -2409,31 +2433,31 @@
         <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>106</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>132</v>
-      </c>
       <c r="I2" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>179</v>
-      </c>
       <c r="K2" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>90</v>
@@ -2445,7 +2469,7 @@
         <v>61</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2574,13 +2598,13 @@
         <v>105</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" s="2">
         <v>100000073665</v>
@@ -2786,16 +2810,16 @@
     <row r="2" spans="1:23">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -2804,13 +2828,13 @@
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I2" s="9">
         <v>654321</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K2" s="2">
         <v>100000073504</v>
@@ -2819,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N2" s="17">
         <v>200000003529</v>

--- a/ePICreator/Dovato.xlsx
+++ b/ePICreator/Dovato.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043D30CC-644D-5644-AEFB-F51B3BF8CF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F90BC9-3281-9144-B2A6-BCB126715D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -545,18 +545,6 @@
   grupo de medicamentos antirretrovirales llamados inhibidores de la integrasa (INI) y lamivudina
   pertenece a un grupo de medicamentos antirretrovirales denominados inhibidores de la transcriptasa
   inversa análogos de nucleósido (ITIAN).
-  &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt;
-  &lt;b&gt;2. Qué necesita saber antes de empezar a tomar Dovato&lt;/b&gt;
-  &lt;b&gt;No tome Dovato&lt;/b&gt;
-  &lt;ul&gt;
-    &lt;li&gt;si es &lt;b&gt;alérgico&lt;/b&gt; (hipersensible) a dolutegravir o lamivudina o a alguno de los demás
-  componentes de este medicamento (incluidos en la sección 6)&lt;/li&gt;
-    &lt;li&gt;si está tomando un medicamento llamado &lt;b&gt;fampridina&lt;/b&gt; (también conocido como
-  dalfampridina; utilizado para tratar la esclerosis múltiple).&lt;/li&gt;
-  &lt;/ul&gt;
   &lt;/div&gt;</t>
   </si>
   <si>
@@ -991,6 +979,71 @@
   </si>
   <si>
     <t>dovat-en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;No tome Dovato&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;si es alérgico (hipersensible) a dolutegravir o lamivudina o a alguno de los demás componentes de este medicamento (incluidos en la sección 6)&lt;/li&gt;
+&lt;li&gt;si está tomando un medicamento llamado fampridina (también conocido como dalfampridina; utilizado para tratar la esclerosis múltiple).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;? Si cree que algo de esto le aplica, consulte a su médico.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Advertencias y precauciones&lt;/strong&gt;
+Algunas personas que toman Dovato u otros tratamientos combinados frente al VIH tienen un mayor riesgo de desarrollar efectos adversos graves que otras. Usted necesita saber que hay un mayor riesgo:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;si tiene una enfermedad hepática moderada o grave&lt;/li&gt;
+&lt;li&gt;si alguna vez ha tenido una enfermedad hepática, incluyendo hepatitis B o C (si tiene hepatitis B no deje de tomar Dovato sin el consejo de su médico, ya que podría empeorar)&lt;/li&gt;
+&lt;li&gt;si tiene un problema de riñón.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;? Consulte a su médico antes de empezar a tomar Dovato si le aplica alguna de estas condiciones. Puede necesitar pruebas adicionales, incluyendo análisis de sangre, mientras toma este medicamento. Para más información, ver sección 4.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Reacciones alérgicas&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;Dovato contiene dolutegravir. Dolutegravir puede producir una reacción alérgica grave conocida como reacción de hipersensibilidad. Usted necesita saber a qué signos y síntomas importantes debe estar atento mientras esté tomando Dovato.&lt;/p&gt;
+&lt;p&gt;? Lea la información “Reacciones alérgicas” en la sección 4 de este prospecto.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Esté atento a los síntomas importantes&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;Algunas personas que toman medicamentos para la infección por el VIH desarrollan otros trastornos, que pueden ser graves. Estos incluyen:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;síntomas de infecciones e inflamación&lt;/li&gt;
+&lt;li&gt;dolor en las articulaciones, rigidez y problemas de huesos.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Usted necesita saber a qué signos y síntomas importantes debe estar atento mientras esté tomando Dovato.&lt;/p&gt;
+&lt;p&gt;? Lea la información sobre “Otros posibles efectos adversos” en la sección 4 de este prospecto.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Niños&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Este medicamento no está indicado en niños menores de 12 años, porque no ha sido estudiado en estos pacientes.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Otros medicamentos y Dovato&lt;/strong&gt;
+Informe a su médico si está tomando, ha tomado recientemente o pudiera tener que tomar cualquier otro medicamento.&lt;/p&gt;
+&lt;p&gt;No tome Dovato con el siguiente medicamento:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;fampridina (también conocido como dalfampridina), utilizado para tratar la esclerosis múltiple.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Algunos medicamentos pueden afectar al funcionamiento de Dovato o aumentar la probabilidad de sufrir efectos adversos. Dovato también puede afectar al funcionamiento de algunos otros medicamentos.&lt;/p&gt;
+&lt;p&gt;Informe a su médico si está tomando alguno de los siguientes medicamentos:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;metformina, para tratar la diabetes&lt;/li&gt;
+&lt;li&gt;medicamentos llamados antiácidos, para tratar la indigestión y el ardor de estómago. No tome un antiácido durante las 6 horas antes de tomar Dovato, o por lo menos 2 horas después de tomarlo (ver también sección 3, “Cómo tomar Dovato”).&lt;/li&gt;
+&lt;li&gt;suplementos o multivitamínicos que contienen calcio, hierro o magnesio. Si toma Dovato con comida, puede tomar los suplementos o multivitamínicos que contengan calcio, hierro o magnesio a la vez que Dovato. Si no toma Dovato con comida, no puede tomar un suplemento o multivitamínico que contenga calcio, hierro o magnesio durante las 6 horas antes de tomar Dovato, o por lo menos 2 horas después de tomarlo (ver también sección 3, “Cómo tomar Dovato”).&lt;/li&gt;
+&lt;li&gt;emtricitabina, etravirina, efavirenz, nevirapina o tipranavir/ritonavir, para tratar la infección por el VIH
+medicamentos (generalmente líquidos) que contengan sorbitol y otros polialcoholes (como xilitol, manitol, lactitol o maltitol), si se toman con regularidad&lt;/li&gt;
+&lt;li&gt;cladribina, utilizada para tratar la leucemia o la esclerosis múltiple&lt;/li&gt;
+&lt;li&gt;rifampicina, para tratar la tuberculosis (TB) y otras infecciones bacterianas&lt;/li&gt;
+&lt;li&gt;fenitoína y fenobarbital, para tratar la epilepsia&lt;/li&gt;
+&lt;li&gt;oxcarbazepina y carbamazepina, para tratar la epilepsia o el trastorno bipolar&lt;/li&gt;
+&lt;li&gt;hierba de San Juan (Hypericum perforatum), un medicamento a base de plantas para tratar la depresión.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;? Informe a su médico o farmacéutico si está tomando alguno de estos medicamentos. Su médico puede decidir ajustar su dosis o que usted necesite chequeos adicionales.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Embarazo&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Si está embarazada, cree que podría estar embarazada o tiene intención de quedarse embarazada:&lt;/p&gt;
+&lt;p&gt;? Consulte a su médico sobre los riegos y beneficios de tomar Dovato.&lt;/p&gt;
+&lt;p&gt;Tomar Dovato en el momento de quedarse embarazada o durante las primeras seis semanas de embarazo puede aumentar el riesgo de un defecto de nacimiento, denominado defecto del tubo neural, como la espina bífida (malformación de la médula espinal).&lt;/p&gt;
+&lt;p&gt;Si existe la posibilidad de quedarse embarazada mientras está tomando Dovato:&lt;/p&gt;
+&lt;p&gt;? Consulte a su médico y valore si existe la necesidad de utilizar un método anticonceptivo, como preservativos o anticonceptivos orales.&lt;/p&gt;
+&lt;p&gt;Informe a su médico de inmediato si se queda embarazada o tiene intención de quedarse embarazada. Su médico revisará su tratamiento. No interrumpa el tratamiento con Dovato sin consultar a su médico, ya que esto podría dañarles a usted y a su hijo.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Lactancia&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;No se recomienda&lt;/strong&gt; que las mujeres que conviven con el VIH den el pecho porque la infección por VIH puede transmitirse al bebé a través de la leche materna.&lt;/p&gt;
+&lt;p&gt;Una pequeña cantidad de los componentes de Dovato también pueden pasar a la leche materna.&lt;/p&gt;
+&lt;p&gt;Si está dando el pecho o piensa en dar el pecho, debe consultar con su médico lo antes posible.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Conducción y uso de máquinas&lt;/strong&gt;
+Dovato puede hacer que se sienta mareado y puede tener otros efectos adversos que reduzcan su atención.&lt;/p&gt;
+          ? No conduzca ni maneje maquinaria, a menos que esté seguro  que no está afectado.
+</t>
   </si>
 </sst>
 </file>
@@ -1635,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1711,40 +1764,40 @@
         <v>53</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>107</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I2" t="s">
         <v>108</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="409.6">
       <c r="B3" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>51</v>
@@ -1756,7 +1809,7 @@
         <v>151</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>152</v>
@@ -1765,19 +1818,19 @@
         <v>153</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1790,7 +1843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1828,10 +1881,10 @@
         <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1842,7 +1895,7 @@
         <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>151</v>
@@ -1930,10 +1983,10 @@
         <v>118</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2045,16 +2098,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
         <v>40</v>
       </c>
       <c r="I2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>164</v>
       </c>
       <c r="K2" t="s">
         <v>41</v>
@@ -2080,16 +2133,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H3" t="s">
         <v>40</v>
       </c>
       <c r="I3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>160</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>161</v>
       </c>
       <c r="K3" t="s">
         <v>41</v>
@@ -2397,7 +2450,7 @@
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K1" t="s">
         <v>89</v>
@@ -2433,10 +2486,10 @@
         <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>116</v>
@@ -2451,13 +2504,13 @@
         <v>131</v>
       </c>
       <c r="I2" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>178</v>
-      </c>
       <c r="K2" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>90</v>
